--- a/medicine/Œil et vue/Bausch_&_Lomb/Bausch_&_Lomb.xlsx
+++ b/medicine/Œil et vue/Bausch_&_Lomb/Bausch_&_Lomb.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Bausch_%26_Lomb</t>
+          <t>Bausch_&amp;_Lomb</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,14 +490,16 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Bausch &amp; Lomb est une entreprise américaine, leader mondial en ophtalmologie médicale et optique[2].
-L'entreprise a été créée en 1853 par Henry Lomb et John Jacob Bausch, opticiens allemands émigrés aux États-Unis[3].
-Fournisseur de l'US Navy de jumelles et télescopes, la société conçoit, à la demande du lieutenant John MacCready les lunettes de soleil Ray-Ban. Lomb et Baush finissent par développer le verre RB3, qui filtre les rayons UV et infrarouges. Baptisé initialement Antiglare, ce verre est breveté plus tard sous le nom de Ray-Ban (bannir les rayons)[4].
+Bausch &amp; Lomb est une entreprise américaine, leader mondial en ophtalmologie médicale et optique.
+L'entreprise a été créée en 1853 par Henry Lomb et John Jacob Bausch, opticiens allemands émigrés aux États-Unis.
+Fournisseur de l'US Navy de jumelles et télescopes, la société conçoit, à la demande du lieutenant John MacCready les lunettes de soleil Ray-Ban. Lomb et Baush finissent par développer le verre RB3, qui filtre les rayons UV et infrarouges. Baptisé initialement Antiglare, ce verre est breveté plus tard sous le nom de Ray-Ban (bannir les rayons).
 Elle fut aussi un fabricant d'objectifs photographiques et de microscopes réputés. Cette dernière branche a été absorbée à la fin du XXe siècle par Leica Microsystems.
-L'entreprise vend la marque Ray-Ban à Luxottica, en 1999[5].
+L'entreprise vend la marque Ray-Ban à Luxottica, en 1999.
 </t>
         </is>
       </c>
